--- a/biology/Médecine/Réseau_international_des_instituts_Pasteur/Réseau_international_des_instituts_Pasteur.xlsx
+++ b/biology/Médecine/Réseau_international_des_instituts_Pasteur/Réseau_international_des_instituts_Pasteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_international_des_instituts_Pasteur</t>
+          <t>Réseau_international_des_instituts_Pasteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Réseau international des Instituts Pasteur (RIIP), ou Pasteur Network, est un regroupement international d'institutions de recherches. Il a pour mission de contribuer à l’amélioration de la santé humaine et de lutter contre les maladies infectieuses. Ces institutions ont ainsi un rôle de recherche biomédicale, de formation et de surveillance épidémiologique des infections qui menacent la santé mondiale.
-Le RIPP a été créé en 2011 en France[1]. Les établissements membres sont répartis sur les cinq continents[2]. C'est une communauté scientifique de coopération internationale avec une cooptation de ses membres.
+Le RIPP a été créé en 2011 en France. Les établissements membres sont répartis sur les cinq continents. C'est une communauté scientifique de coopération internationale avec une cooptation de ses membres.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_international_des_instituts_Pasteur</t>
+          <t>Réseau_international_des_instituts_Pasteur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,46 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Unis par les valeurs pasteuriennes, ces instituts ont des missions de service, de santé publique, de formation et de recherche. Celles-ci sont dirigées contre les principales maladies infectieuses touchant les populations au sein desquelles les instituts sont implantés (paludisme, tuberculose ou encore SIDA).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unis par les valeurs pasteuriennes, ces instituts ont des missions de service, de santé publique, de formation et de recherche. Celles-ci sont dirigées contre les principales maladies infectieuses touchant les populations au sein desquelles les instituts sont implantés (paludisme, tuberculose ou encore SIDA).
 Ils contribuent à une veille sanitaire, microbiologique et épidémiologique à l'échelle de la planète.
-Europe
-Institut Pasteur de Paris[3]
-Institut Pasteur de Lille[4]
-Institut Pasteur Hellenique (Grèce)[5]
-Institut Cantacuzène (Roumanie)[6]
-Institut Stefan Angeloff (Bulgarie)[7]
-Fondation Cenci Bolognetti Rome[8]
-Institut Pasteur de Saint-Pétersbourg[9]
-Afrique
-Institut Pasteur d'Algérie[10]
-Institut Pasteur de Bangui[11]
-Institut Pasteur de Côte d'Ivoire[12]
-Institut Pasteur de Dakar[13]
-Centre Pasteur du Cameroun[14]
-CERMES (Niamey, Niger)[15]
-Institut Pasteur du Maroc[16]
-Institut Pasteur de Madagascar[17]
-Institut Pasteur de Guinée
-Institut Pasteur de Tunis[18]
-Amérique
-Institut Armand-Frappier Santé Biotechnologie de l'INRS (Laval, Québec, Canada)[19],[20]
-Institut Pasteur de Guadeloupe[21]
-Institut Pasteur de la Guyane française[22]
-Institut Pasteur de Montevideo, Uruguay[23]
-Institut Pasteur de Sao Paulo
-Asie-Pacifique
-Institut Pasteur du Cambodge[24]
-Institut Pasteur de Corée[25]
-Institut Pasteur du Laos[26]
-Institut Pasteur d'Iran[27]
-Institut Pasteur de Nouvelle-Calédonie[28]
-Centre Pasteur de Hong Kong[29]
-Institut Pasteur de Shanghai[30]
-Institut Pasteur d'Hô-Chi-Minh-Ville[31]
-Institut national d'hygiène et d'épidémiologie (NIHE), Hanoï
-Institut Pasteur de Nha Trang[32]</t>
+</t>
         </is>
       </c>
     </row>
@@ -561,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_international_des_instituts_Pasteur</t>
+          <t>Réseau_international_des_instituts_Pasteur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -576,13 +555,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Institutions correspondantes</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fondation Oswaldo Cruz, Brésil[33]
-Institut scientifique de Santé publique Sciensano[34] (Belgique)[35]</t>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Institut Pasteur de Paris
+Institut Pasteur de Lille
+Institut Pasteur Hellenique (Grèce)
+Institut Cantacuzène (Roumanie)
+Institut Stefan Angeloff (Bulgarie)
+Fondation Cenci Bolognetti Rome
+Institut Pasteur de Saint-Pétersbourg</t>
         </is>
       </c>
     </row>
@@ -592,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_international_des_instituts_Pasteur</t>
+          <t>Réseau_international_des_instituts_Pasteur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -607,10 +597,175 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Institut Pasteur d'Algérie
+Institut Pasteur de Bangui
+Institut Pasteur de Côte d'Ivoire
+Institut Pasteur de Dakar
+Centre Pasteur du Cameroun
+CERMES (Niamey, Niger)
+Institut Pasteur du Maroc
+Institut Pasteur de Madagascar
+Institut Pasteur de Guinée
+Institut Pasteur de Tunis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Réseau_international_des_instituts_Pasteur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9seau_international_des_instituts_Pasteur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Institut Armand-Frappier Santé Biotechnologie de l'INRS (Laval, Québec, Canada),
+Institut Pasteur de Guadeloupe
+Institut Pasteur de la Guyane française
+Institut Pasteur de Montevideo, Uruguay
+Institut Pasteur de Sao Paulo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Réseau_international_des_instituts_Pasteur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9seau_international_des_instituts_Pasteur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Asie-Pacifique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Institut Pasteur du Cambodge
+Institut Pasteur de Corée
+Institut Pasteur du Laos
+Institut Pasteur d'Iran
+Institut Pasteur de Nouvelle-Calédonie
+Centre Pasteur de Hong Kong
+Institut Pasteur de Shanghai
+Institut Pasteur d'Hô-Chi-Minh-Ville
+Institut national d'hygiène et d'épidémiologie (NIHE), Hanoï
+Institut Pasteur de Nha Trang</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Réseau_international_des_instituts_Pasteur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9seau_international_des_instituts_Pasteur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Institutions correspondantes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fondation Oswaldo Cruz, Brésil
+Institut scientifique de Santé publique Sciensano (Belgique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Réseau_international_des_instituts_Pasteur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9seau_international_des_instituts_Pasteur</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Instituts disparus ou apparentés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les instituts cités ci-dessous ont été fermés ou ont changé d'identité ou d'activité en quittant le RIIP.
 Pasteur Intézet (Budapest, Hongrie, 1890-?)
@@ -620,13 +775,13 @@
 Laboratoire de microbiologie de Phnom-Penh (1912), devenu I.P. du Cambodge (détruit en 1975).
 Kindia (Guinée,1923) devenu IRBG (199?)
 Laboratoire de microbiologie de Pointe-à-Pitre (1924) devenu I.P. de Guadeloupe (1948)
-Institut Marchoux (1935) devenu CNAM (Bamako)[36]
-Centre Muraz (Bobo Dioulasso, Burkina Faso)[37]
+Institut Marchoux (1935) devenu CNAM (Bamako)
+Centre Muraz (Bobo Dioulasso, Burkina Faso)
 Institut Pasteur de Dalat (Indochine, aujourd'hui Vietnam, 1936)
 Institut Pasteur de Shanghaï (Chine, 1938)
 Laboratoire de microbiologie de Hué (Vietnam)
-Institut Louis Malardé, Papeete[38]
-Instituto de Biologica de Altura (La Paz, Bolivie)[39]
+Institut Louis Malardé, Papeete
+Instituto de Biologica de Altura (La Paz, Bolivie)
 Institut Pasteur d'Indonésie</t>
         </is>
       </c>
